--- a/cityscapes/rgf_classification_report.xlsx
+++ b/cityscapes/rgf_classification_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9688970417881931</v>
+        <v>0.9271594212777341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6380203881429602</v>
+        <v>0.6026443811811145</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7693936914963379</v>
+        <v>0.730482451140581</v>
       </c>
       <c r="E2" t="n">
         <v>2392469</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9132813420381688</v>
+        <v>0.8254146236927344</v>
       </c>
       <c r="C3" t="n">
-        <v>0.93884785972852</v>
+        <v>0.9553837968799129</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9258881426680678</v>
+        <v>0.885656397797326</v>
       </c>
       <c r="E3" t="n">
         <v>6176366</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5983623477602698</v>
+        <v>0.5060196671969941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6664994999190976</v>
+        <v>0.3894319705458499</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6305956753843551</v>
+        <v>0.4401359667579778</v>
       </c>
       <c r="E4" t="n">
         <v>1056829</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7789184369024142</v>
+        <v>0.7173396125185207</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8477336123093701</v>
+        <v>0.8167396982142986</v>
       </c>
       <c r="D5" t="n">
-        <v>0.811870418790074</v>
+        <v>0.76381935998559</v>
       </c>
       <c r="E5" t="n">
         <v>3873212</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06766917293233082</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>7.259586687531256e-05</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0001450361381710943</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>123974</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.401842956206426e-05</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2.803568007550943e-05</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>214004</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6923136961252174</v>
+        <v>0.6992848414951393</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8636086294027929</v>
+        <v>0.8282395123752746</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7685320435576168</v>
+        <v>0.758318955326442</v>
       </c>
       <c r="E11" t="n">
         <v>2732101</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.418689661636517</v>
+        <v>0.09539052496798976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06654418154281599</v>
+        <v>0.0007398763562330859</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1148368410228285</v>
+        <v>0.001468363661448556</v>
       </c>
       <c r="E12" t="n">
         <v>201385</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8601027838420546</v>
+        <v>0.8604401663553559</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9430021155478645</v>
+        <v>0.8978337562942381</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8996467648954797</v>
+        <v>0.8787393325621494</v>
       </c>
       <c r="E13" t="n">
         <v>672639</v>
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3461136146637232</v>
+        <v>0.245433103639643</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4818601303869274</v>
+        <v>0.02246634493268987</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4028590338461757</v>
+        <v>0.04116458465034924</v>
       </c>
       <c r="E14" t="n">
         <v>236220</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6742141373821382</v>
+        <v>0.6301215595586225</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8826391949926325</v>
+        <v>0.7991041480380674</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7644751256868828</v>
+        <v>0.7046231387178521</v>
       </c>
       <c r="E16" t="n">
         <v>1191045</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.09667852906287069</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004601659985319858</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.008785167618842299</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>35422</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09048584516032139</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01602052754733035</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02722148803271096</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>75216</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7983323690053579</v>
+        <v>0.759926563984639</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7983323690053579</v>
+        <v>0.759926563984639</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7983323690053579</v>
+        <v>0.759926563984639</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7983323690053579</v>
+        <v>0.759926563984639</v>
       </c>
     </row>
     <row r="23">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3419529971313776</v>
+        <v>0.2753301760351367</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3174732206901035</v>
+        <v>0.2656291742408839</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3062138732408809</v>
+        <v>0.2602204275299858</v>
       </c>
       <c r="E23" t="n">
         <v>19398656</v>
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7803199907334039</v>
+        <v>0.7189374168291598</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7983323690053579</v>
+        <v>0.759926563984639</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7787340537827984</v>
+        <v>0.7296130845309581</v>
       </c>
       <c r="E24" t="n">
         <v>19398656</v>

--- a/cityscapes/rgf_classification_report.xlsx
+++ b/cityscapes/rgf_classification_report.xlsx
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8167377021336475</v>
+        <v>0.8167379266011223</v>
       </c>
       <c r="C3" t="n">
         <v>0.9622964377434886</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8835623372447371</v>
+        <v>0.883562468595486</v>
       </c>
       <c r="E3" t="n">
         <v>6176366</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5008842492291692</v>
+        <v>0.5008842471343404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4001177106230052</v>
+        <v>0.4001186568498782</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4448662001169881</v>
+        <v>0.4448667841456038</v>
       </c>
       <c r="E4" t="n">
         <v>1056829</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7308925993338913</v>
+        <v>0.7308924271669022</v>
       </c>
       <c r="C5" t="n">
         <v>0.8010984165080558</v>
       </c>
       <c r="D5" t="n">
-        <v>0.764386863772893</v>
+        <v>0.7643867696187925</v>
       </c>
       <c r="E5" t="n">
         <v>3873212</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6736660018004342</v>
+        <v>0.6736661999853494</v>
       </c>
       <c r="C11" t="n">
         <v>0.8381505661759943</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7469603823409823</v>
+        <v>0.7469605041687869</v>
       </c>
       <c r="E11" t="n">
         <v>2732101</v>
@@ -677,7 +677,7 @@
         <v>0.9580874733698165</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8578512154668185</v>
+        <v>0.8578512154668186</v>
       </c>
       <c r="E13" t="n">
         <v>672639</v>
@@ -734,7 +734,7 @@
         <v>0.7296575696132388</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7292687634264231</v>
+        <v>0.7292687634264232</v>
       </c>
       <c r="E16" t="n">
         <v>1191045</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7597630990518106</v>
+        <v>0.7597631506017737</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7597630990518106</v>
+        <v>0.7597631506017737</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7597630990518106</v>
+        <v>0.7597631506017737</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7597630990518106</v>
+        <v>0.7597631506017737</v>
       </c>
     </row>
     <row r="23">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2672303129766953</v>
+        <v>0.2672303253962239</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2659024737582459</v>
+        <v>0.2659025210695896</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2596376431153153</v>
+        <v>0.2596376802679687</v>
       </c>
       <c r="E23" t="n">
         <v>19398656</v>
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7150930664499656</v>
+        <v>0.7150931313411293</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7597630990518106</v>
+        <v>0.7597631506017737</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7287306474039625</v>
+        <v>0.728730719401515</v>
       </c>
       <c r="E24" t="n">
         <v>19398656</v>
